--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Outreach\app-designer-master\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DE103-576F-414C-BF3F-B693CB7ED8AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A7D93-9D4B-4224-8271-F7C1508CC81D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,12 +512,6 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>form_id_here</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('form_id_here')</t>
-  </si>
-  <si>
     <t>display.title.text.en</t>
   </si>
   <si>
@@ -769,7 +763,13 @@
     <t>text.en</t>
   </si>
   <si>
-    <t>testForm</t>
+    <t>'?' + odkSurvey.getHashString('census')</t>
+  </si>
+  <si>
+    <t>census</t>
+  </si>
+  <si>
+    <t>Census Form</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1504,14 +1504,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1569,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>237</v>
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1608,22 +1608,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -1697,27 +1697,27 @@
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1836,10 +1836,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1872,7 +1872,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1883,7 +1883,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
         <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1936,7 +1936,7 @@
         <v>148</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1950,7 +1950,7 @@
         <v>150</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -1972,7 +1972,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1994,7 +1994,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2016,7 +2016,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,7 +2038,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2049,7 +2049,7 @@
         <v>75</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
         <v>77</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2082,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2093,7 +2093,7 @@
         <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2126,7 +2126,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2137,7 +2137,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,7 +2148,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2159,7 +2159,7 @@
         <v>96</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2170,7 +2170,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2181,7 +2181,7 @@
         <v>102</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2192,7 +2192,7 @@
         <v>106</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2203,7 +2203,7 @@
         <v>105</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,7 +2214,7 @@
         <v>108</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
@@ -2225,7 +2225,7 @@
         <v>111</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2236,7 +2236,7 @@
         <v>113</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2247,7 +2247,7 @@
         <v>114</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2258,7 +2258,7 @@
         <v>117</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2269,7 +2269,7 @@
         <v>119</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2280,7 +2280,7 @@
         <v>121</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2291,7 +2291,7 @@
         <v>123</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2302,7 +2302,7 @@
         <v>125</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,7 +2313,7 @@
         <v>127</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2327,7 +2327,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
         <v>146</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
         <v>132</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2360,7 +2360,7 @@
         <v>134</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2371,7 +2371,7 @@
         <v>136</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,7 +2382,7 @@
         <v>138</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2393,7 +2393,7 @@
         <v>139</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2404,7 +2404,7 @@
         <v>102</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2415,7 +2415,7 @@
         <v>140</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
         <v>132</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>147</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2448,7 +2448,7 @@
         <v>152</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2459,40 +2459,40 @@
         <v>153</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2523,13 +2523,13 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
         <v>59</v>
